--- a/Budget Project - Charles and Tanner/Budget Book.xlsx
+++ b/Budget Project - Charles and Tanner/Budget Book.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACSUser2\Desktop\SchoolPapers\Budget Project - Charles and Tanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACSUser3\Desktop\SchoolPapers\Budget Project - Charles and Tanner\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,25 +173,21 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right style="thin">
-        <color theme="1"/>
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -205,13 +201,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +484,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" activeCellId="1" sqref="H5 N9"/>
+      <selection activeCell="D16" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,164 +503,170 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2323</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>78</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>123</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>90</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>80</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>90</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5">
+        <v>273.63</v>
+      </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="5">
+        <v>116</v>
+      </c>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="5">
+        <v>62</v>
+      </c>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5">
+        <v>132</v>
+      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="5">
+        <v>438</v>
+      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="5">
+        <v>242</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="5">
+        <v>200</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="B16" s="5">
+        <v>99</v>
+      </c>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="5">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="5">
+        <v>250</v>
+      </c>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="5">
         <f>SUM(B3:C19)</f>
-        <v>2784</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>4644.63</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>44607.786666666601</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
